--- a/biology/Zoologie/Grallaire_de_Carriker/Grallaire_de_Carriker.xlsx
+++ b/biology/Zoologie/Grallaire_de_Carriker/Grallaire_de_Carriker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grallaria carrikeri
 Le Grallaire de Carriker (Grallaria carrikeri) est une espèce d'oiseaux de la famille des Grallariidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique au Pérou. 
 </t>
@@ -543,9 +557,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit dans la forêt de bambous Chusquea ainsi que dans la forêt tropicale humide de montagne entre 2 300 et 3 100 m d'altitude[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit dans la forêt de bambous Chusquea ainsi que dans la forêt tropicale humide de montagne entre 2 300 et 3 100 m d'altitude.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se nourrit d'arthropodes, particulièrement de chenilles et de coléoptères. Les juvéniles se nourrissent fréquemment de vers de terre[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se nourrit d'arthropodes, particulièrement de chenilles et de coléoptères. Les juvéniles se nourrissent fréquemment de vers de terre.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, carrikeri, ainsi que son nom vernaculaire (« de Carriker »), lui ont été donnés en l'honneur de Melbourne Armstrong Carriker (1879-1965), entomologiste et ornithologue américain, en remerciement à son énorme contribution à la connaissance des oiseaux andins[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, carrikeri, ainsi que son nom vernaculaire (« de Carriker »), lui ont été donnés en l'honneur de Melbourne Armstrong Carriker (1879-1965), entomologiste et ornithologue américain, en remerciement à son énorme contribution à la connaissance des oiseaux andins.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Thomas S. Schulenberg et Morris D. Williams, « A new species of antpitta (Grallaria) from northern Peru », The Wilson Bulletin, vol. 94, no 2,‎ juin 1982, p. 105-240 (ISSN 0043-5643 et 2162-5204, lire en ligne)</t>
         </is>
